--- a/EnduranceReconfig.xlsx
+++ b/EnduranceReconfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arcade\KSP181_Test\GameData\EnduranceReconfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadon\Documents\GitHub\EnduranceReconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19920" windowHeight="9795"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19920" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Light</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>EC/s cfg</t>
+  </si>
+  <si>
+    <t>Ranger Spike</t>
+  </si>
+  <si>
+    <t>Ranger Body</t>
+  </si>
+  <si>
+    <t>Lander Lift</t>
   </si>
 </sst>
 </file>
@@ -70,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,7 +126,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,7 +413,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,14 +445,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.6890000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="B3">
         <v>2950</v>
       </c>
       <c r="C3" s="1">
         <f>B3/A3</f>
-        <v>1097.0621048716996</v>
+        <v>15526.315789473683</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -451,14 +460,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.67200000000000004</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="B4">
         <v>2950</v>
       </c>
       <c r="C4" s="1">
         <f>B4/A4</f>
-        <v>4389.8809523809523</v>
+        <v>61458.333333333328</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -466,14 +475,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.34599999999999997</v>
+        <v>2.4E-2</v>
       </c>
       <c r="B5">
         <v>450</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="0">B5/A5</f>
-        <v>1300.5780346820811</v>
+        <v>18750</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -481,14 +490,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.042</v>
+        <v>1.02</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>95.969289827255281</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -526,14 +535,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -600,22 +609,22 @@
         <v>1300.5780346820811</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.042</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>100</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>95.969289827255281</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,19 +654,19 @@
         <v>12.150668286755771</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>5.7610000000000001</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>26.037146328762368</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -684,14 +693,14 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>13.433</v>
       </c>
       <c r="B23">
         <v>2950</v>
       </c>
       <c r="C23" s="1">
         <f>B23/A23</f>
-        <v>2950</v>
+        <v>219.60842700811435</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -699,14 +708,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="B24">
         <v>2950</v>
       </c>
       <c r="C24" s="1">
         <f>B24/A24</f>
-        <v>2950</v>
+        <v>878.49910661107799</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -714,44 +723,44 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="B25">
         <v>450</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ref="C25:C29" si="2">B25/A25</f>
-        <v>450</v>
+        <v>260.56745801968731</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B26">
         <v>100</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>246.73</v>
       </c>
       <c r="B27">
         <v>600</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>2.4318080492846432</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -759,29 +768,29 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>41.122</v>
       </c>
       <c r="B28">
         <v>100</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>2.4317883371431352</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>28.785</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>5.2110474205315267</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>

--- a/EnduranceReconfig.xlsx
+++ b/EnduranceReconfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19920" windowHeight="9795"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19920" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Light</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>Lander Lift</t>
+  </si>
+  <si>
+    <t>Fuel density</t>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Isp</t>
+  </si>
+  <si>
+    <t>U/s</t>
   </si>
 </sst>
 </file>
@@ -410,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,17 +437,33 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -442,8 +473,28 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>18000</v>
+      </c>
+      <c r="L2">
+        <f>(I2*K2)/J2</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.19</v>
       </c>
@@ -458,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -473,22 +524,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.4E-2</v>
+        <v>0.245</v>
       </c>
       <c r="B5">
         <v>450</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="0">B5/A5</f>
-        <v>18750</v>
+        <v>1836.7346938775511</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.02</v>
       </c>
@@ -503,37 +554,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>49.381</v>
+        <v>0.68</v>
       </c>
       <c r="B7">
         <v>600</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>12.150422227172394</v>
+        <v>882.35294117647049</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.58299999999999996</v>
+        <v>0.113</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>171.52658662092625</v>
+        <v>884.95575221238937</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -548,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -556,7 +607,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -567,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.6890000000000001</v>
       </c>
@@ -582,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.67200000000000004</v>
       </c>
@@ -597,22 +648,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.34599999999999997</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="B15">
         <v>450</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:C19" si="1">B15/A15</f>
-        <v>1300.5780346820811</v>
+        <v>130.17066820943015</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -629,14 +680,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>49.381</v>
+        <v>9.6020000000000003</v>
       </c>
       <c r="B17">
         <v>600</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>12.150422227172394</v>
+        <v>62.486981878775254</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -644,14 +695,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>8.23</v>
+        <v>1.6</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>12.150668286755771</v>
+        <v>62.5</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -753,14 +804,14 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>246.73</v>
+        <v>47.975000000000001</v>
       </c>
       <c r="B27">
         <v>600</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="2"/>
-        <v>2.4318080492846432</v>
+        <v>12.506513809275663</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -768,14 +819,14 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>41.122</v>
+        <v>7.9960000000000004</v>
       </c>
       <c r="B28">
         <v>100</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="2"/>
-        <v>2.4317883371431352</v>
+        <v>12.506253126563282</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>

--- a/EnduranceReconfig.xlsx
+++ b/EnduranceReconfig.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19920" windowHeight="9795"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="19920" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Engine EC demand" sheetId="1" r:id="rId1"/>
+    <sheet name="Science" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Light</t>
   </si>
@@ -87,6 +88,51 @@
   </si>
   <si>
     <t>U/s</t>
+  </si>
+  <si>
+    <t>LabTime</t>
+  </si>
+  <si>
+    <t>Produced /s</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Time to produce</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>d (JNSQ)</t>
+  </si>
+  <si>
+    <t>d (stock)</t>
+  </si>
+  <si>
+    <t>Science Points</t>
+  </si>
+  <si>
+    <t>Kerbin</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Hamek</t>
+  </si>
+  <si>
+    <t>Lindor</t>
+  </si>
+  <si>
+    <t>Sun (High)</t>
+  </si>
+  <si>
+    <t>Sun (Low)</t>
   </si>
 </sst>
 </file>
@@ -139,9 +185,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,16 +485,18 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="G1" t="s">
         <v>16</v>
       </c>
@@ -600,12 +650,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -724,12 +774,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -856,4 +906,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <f>$F$2*G2</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="B3">
+        <v>850</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3/A3</f>
+        <v>3035714.2857142859</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="0">$F$2*G3</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <f>C3/3600</f>
+        <v>843.25396825396831</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <f>C4/12</f>
+        <v>70.271164021164026</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C4/6</f>
+        <v>140.54232804232805</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>